--- a/JFramework/TestCases.xlsx
+++ b/JFramework/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iryna_Bahatka1\Documents\Tasks.Net\JFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>LogIn</t>
   </si>
@@ -35,52 +35,112 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>1. Login as valid user</t>
-  </si>
-  <si>
-    <t>1. Login as invalid user</t>
-  </si>
-  <si>
-    <t>2. Empty fields</t>
-  </si>
-  <si>
-    <t>3. In the login box enter the correct password, and the password field, enter a valid username</t>
-  </si>
-  <si>
-    <t>4. Enter in the username field complicated sequence of symbols</t>
-  </si>
-  <si>
-    <t>5. The login text box contains only white space</t>
-  </si>
-  <si>
-    <t>6. Check the limit on the length of the login and password during registration</t>
-  </si>
-  <si>
-    <t>7. Enter in LogIn and password fields  Single Quote</t>
-  </si>
-  <si>
-    <t>8. Check Required Data Entry</t>
-  </si>
-  <si>
-    <t>9. Numeric Limits Test</t>
-  </si>
-  <si>
-    <t>Base Search</t>
-  </si>
-  <si>
-    <t>2. Search with special characters</t>
-  </si>
-  <si>
-    <t>3. Check for cursor on the search text box in the starting  position</t>
-  </si>
-  <si>
-    <t>2. Empty search</t>
-  </si>
-  <si>
-    <t>1. Valid name of article</t>
-  </si>
-  <si>
-    <t>1. Invalid name of article</t>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>1. Open homepage</t>
+  </si>
+  <si>
+    <t>4. Click button "Login"</t>
+  </si>
+  <si>
+    <t>4. Button "LogOut" is displayed</t>
+  </si>
+  <si>
+    <t>1. All elements of homepage is displayed</t>
+  </si>
+  <si>
+    <t>2.Enter username "irynabahatka1"</t>
+  </si>
+  <si>
+    <t>3.Enter password "12345678"</t>
+  </si>
+  <si>
+    <t>2.Enter username "invalidUsername"</t>
+  </si>
+  <si>
+    <t>3.Enter password "invalidPassword"</t>
+  </si>
+  <si>
+    <t>4. Button "LogIn" is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open page of journal </t>
+  </si>
+  <si>
+    <t>2.Enter in search-field query "Journal"</t>
+  </si>
+  <si>
+    <t>1. All elements of journal page is displayed</t>
+  </si>
+  <si>
+    <t>2.Enter in search-field query "$%^&amp;*"</t>
+  </si>
+  <si>
+    <t>2. Results of query is displayed</t>
+  </si>
+  <si>
+    <t>2. "Not found" message is displayed</t>
+  </si>
+  <si>
+    <t>Base Search by keyword</t>
+  </si>
+  <si>
+    <t>Base Search by article</t>
+  </si>
+  <si>
+    <t>2.Enter in search-field query name of first article of journal</t>
+  </si>
+  <si>
+    <t>Advansed search</t>
+  </si>
+  <si>
+    <t>2. Click button "Advansed search"</t>
+  </si>
+  <si>
+    <t>2. All elements of advansed search page is displayed</t>
+  </si>
+  <si>
+    <t>3.Enter in search-field "Title" query "title"</t>
+  </si>
+  <si>
+    <t>Positive for title-field</t>
+  </si>
+  <si>
+    <t>Positive for author-field</t>
+  </si>
+  <si>
+    <t>3.Enter in search-field "Author" query "John"</t>
+  </si>
+  <si>
+    <t>Positive for abstract-field</t>
+  </si>
+  <si>
+    <t>Positive for fullText-field</t>
+  </si>
+  <si>
+    <t>Positive for volume-field</t>
+  </si>
+  <si>
+    <t>Positive for issue-field</t>
+  </si>
+  <si>
+    <t>3.Enter in search-field "Abstract" query "a"</t>
+  </si>
+  <si>
+    <t>3.Enter in search-field "Full text" query "in"</t>
+  </si>
+  <si>
+    <t>3.Enter in search-field "Issue" query "in"</t>
+  </si>
+  <si>
+    <t>3.Enter in search-field "Volume" query ""</t>
+  </si>
+  <si>
+    <t>3. Results of query is displayed</t>
   </si>
 </sst>
 </file>
@@ -138,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,86 +494,102 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -523,9 +599,247 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
